--- a/汇总/实验结果汇总.xlsx
+++ b/汇总/实验结果汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearningCode\IOMatch\汇总\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85BF48E-D263-46A6-B1BA-98191183BF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A139D6-E0EE-483F-B7F0-0F2271B58108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t xml:space="preserve">dataset </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>不同实验设置下AUROC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,13 +428,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,23 +476,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,80 +759,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:R22"/>
+  <dimension ref="D4:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="9" style="2" customWidth="1"/>
+    <col min="8" max="21" width="9" style="2"/>
+    <col min="22" max="22" width="27.75" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:36" x14ac:dyDescent="0.2">
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="4:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:36" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="4:36" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="29" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="28" t="s">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="30"/>
+      <c r="R6" s="28"/>
     </row>
-    <row r="7" spans="4:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:36" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="28" t="s">
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="30"/>
+      <c r="R7" s="28"/>
+      <c r="Y7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="4:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:36" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>1</v>
       </c>
@@ -854,7 +886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:36" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="8" t="s">
         <v>2</v>
       </c>
@@ -882,7 +914,7 @@
       <c r="L9" s="18">
         <v>71.959999999999994</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>67.069999999999993</v>
       </c>
       <c r="N9" s="17" t="s">
@@ -891,7 +923,7 @@
       <c r="O9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="35">
         <v>68.760000000000005</v>
       </c>
       <c r="Q9" s="15">
@@ -900,8 +932,31 @@
       <c r="R9" s="14">
         <v>79.8</v>
       </c>
+      <c r="V9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="28"/>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:36" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
@@ -920,16 +975,16 @@
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>16</v>
+      <c r="J10" s="15">
+        <v>55.94</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L10" s="14">
         <v>75.36</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <v>76.16</v>
       </c>
       <c r="N10" s="10" t="s">
@@ -938,7 +993,7 @@
       <c r="O10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="35">
         <v>69.92</v>
       </c>
       <c r="Q10" s="15">
@@ -947,183 +1002,176 @@
       <c r="R10" s="14">
         <v>81.7</v>
       </c>
+      <c r="V10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="28"/>
     </row>
-    <row r="11" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:36" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="32">
         <v>96.53</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="22">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="32">
         <v>84.02</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="21">
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="20">
         <v>83.96</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="33">
         <v>80.5</v>
       </c>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="22">
+      <c r="O11" s="33"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="32">
         <v>94.85</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="34"/>
+      <c r="V11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="4">
+        <v>4</v>
+      </c>
+      <c r="X11" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>25</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>50</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>25</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>50</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="4:18" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="G17" s="2" t="s">
-        <v>27</v>
+    <row r="12" spans="4:36" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="23">
+        <v>38.26</v>
+      </c>
+      <c r="Z12" s="23">
+        <v>43.87</v>
+      </c>
+      <c r="AA12" s="23">
+        <v>54.14</v>
+      </c>
+      <c r="AB12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>69.459999999999994</v>
+      </c>
+      <c r="AF12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH12" s="24">
+        <v>59.45</v>
+      </c>
+      <c r="AI12" s="23">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="AJ12" s="24">
+        <v>75.14</v>
       </c>
     </row>
-    <row r="18" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="4:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="30"/>
-    </row>
-    <row r="20" spans="4:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" s="30"/>
-    </row>
-    <row r="21" spans="4:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>25</v>
-      </c>
-      <c r="G21" s="3">
-        <v>50</v>
-      </c>
-      <c r="H21" s="3">
-        <v>200</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="4">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
-        <v>25</v>
-      </c>
-      <c r="L21" s="5">
-        <v>50</v>
-      </c>
-      <c r="M21" s="6">
-        <v>50</v>
-      </c>
-      <c r="N21" s="3">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
-        <v>25</v>
-      </c>
-      <c r="P21" s="3">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="4:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="14"/>
-    </row>
+    <row r="13" spans="4:36" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="E7:I7"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
